--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11948</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10361</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>10361</v>
+        <v>11432</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>10361</v>
+        <v>11432</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>10361</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>10361</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10271</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>10271</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>9566</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9566</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9413</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9413</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9413</v>
+        <v>10330</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>9413</v>
+        <v>10330</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9161</v>
+        <v>10330</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9161</v>
+        <v>10330</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9161</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8691</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8691</v>
+        <v>10261</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8691</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8691</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8691</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8638</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8638</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8638</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8638</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8513</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8513</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8296</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8296</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8296</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8296</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8296</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8296</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8296</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8296</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8239</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8239</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8239</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8239</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8239</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8217</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8217</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8217</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8197</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8197</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7902</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7902</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7902</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7902</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7902</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7902</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7902</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7902</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7900</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7735</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7651</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7651</v>
+        <v>7590</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12882</v>
+        <v>11978</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12882</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11432</v>
+        <v>11277</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>11432</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11082</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>11082</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10740</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>10740</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>10740</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10740</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>10709</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10701</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>10330</v>
+        <v>9078</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>10330</v>
+        <v>8817</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>10330</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10330</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>10295</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>10295</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>10261</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>10063</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>9758</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>9758</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>9758</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>9758</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>9758</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>9758</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>9758</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>9758</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>9226</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>9226</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8957</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8957</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8957</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8957</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8957</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8906</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8906</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8906</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8906</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8906</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8906</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>8821</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>8672</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>8356</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>8356</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>8356</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>8172</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>8172</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>8172</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7674</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7590</v>
+        <v>7569</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11978</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11788</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11277</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>10490</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>10490</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>10490</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9376</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>9376</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>9376</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9376</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9369</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9146</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9078</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8817</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8802</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8802</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8780</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8477</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8477</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8477</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8477</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8231</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8231</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8231</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8231</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>7906</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7894</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7894</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7894</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7894</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7894</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7894</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7894</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7569</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7569</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7569</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7569</v>
+        <v>7293</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8379</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8379</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8379</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8220</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8220</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8220</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8043</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8018</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8018</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7900</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7900</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7900</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7900</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7735</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7735</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7735</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7735</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7651</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7293</v>
+        <v>7569</v>
       </c>
     </row>
   </sheetData>

--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7752</v>
+        <v>12663</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7752</v>
+        <v>12663</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7752</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7752</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>7752</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7752</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7752</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>7752</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>7752</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7752</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>7752</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>7752</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>7752</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>7752</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7752</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>7752</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>7752</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>7752</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>7752</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>7752</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>7752</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>7678</v>
+        <v>8517</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>7678</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7678</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7678</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7676</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7676</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7676</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7676</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7676</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7651</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7569</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="143">

--- a/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8_1/run_5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12663</v>
+        <v>9.64296074022214</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12663</v>
+        <v>9.64296074022214</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11698</v>
+        <v>9.64296074022214</v>
       </c>
     </row>
     <row r="5">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>10698</v>
+        <v>19.43702457455183</v>
       </c>
     </row>
     <row r="6">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>10698</v>
+        <v>19.43702457455183</v>
       </c>
     </row>
     <row r="7">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>10698</v>
+        <v>19.43702457455183</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10166</v>
+        <v>19.43702457455183</v>
       </c>
     </row>
     <row r="9">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>10166</v>
+        <v>20.03883631843803</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>9972</v>
+        <v>20.03883631843803</v>
       </c>
     </row>
     <row r="11">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9972</v>
+        <v>20.03883631843803</v>
       </c>
     </row>
     <row r="12">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9972</v>
+        <v>21.00789825296658</v>
       </c>
     </row>
     <row r="13">
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9972</v>
+        <v>21.00789825296658</v>
       </c>
     </row>
     <row r="14">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9972</v>
+        <v>21.00789825296658</v>
       </c>
     </row>
     <row r="15">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>9173</v>
+        <v>21.00789825296658</v>
       </c>
     </row>
     <row r="16">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9173</v>
+        <v>21.47193699498653</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9014</v>
+        <v>21.47193699498653</v>
       </c>
     </row>
     <row r="18">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9014</v>
+        <v>21.47193699498653</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>9014</v>
+        <v>21.47193699498653</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>9014</v>
+        <v>21.55262276888345</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>9014</v>
+        <v>21.55262276888345</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>9014</v>
+        <v>21.55262276888345</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>9014</v>
+        <v>21.55262276888345</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>9014</v>
+        <v>21.65255539903387</v>
       </c>
     </row>
     <row r="25">
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>9014</v>
+        <v>25.33540962865005</v>
       </c>
     </row>
     <row r="26">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>9014</v>
+        <v>25.33540962865005</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>8522</v>
+        <v>25.58362308785897</v>
       </c>
     </row>
     <row r="28">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>8522</v>
+        <v>25.58362308785897</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>8522</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="30">
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>8522</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="31">
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>8517</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="32">
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>8517</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="33">
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>8517</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="34">
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>8517</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="35">
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>8517</v>
+        <v>26.86092947320604</v>
       </c>
     </row>
     <row r="36">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="37">
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="39">
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="40">
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="42">
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>8517</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="43">
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>8009</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="44">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>8009</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="45">
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>8009</v>
+        <v>26.95809988974574</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>8009</v>
+        <v>26.95839500433323</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>8009</v>
+        <v>26.95839500433323</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>8009</v>
+        <v>26.95839500433323</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>8009</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>8009</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>7586</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="52">
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>7586</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="53">
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>7586</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="54">
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>7586</v>
+        <v>27.00378127207013</v>
       </c>
     </row>
     <row r="55">
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>7586</v>
+        <v>27.03175715496542</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>7586</v>
+        <v>27.03175715496542</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="60">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="64">
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="65">
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="66">
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="68">
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="69">
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="70">
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="71">
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="72">
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="74">
@@ -1183,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="75">
@@ -1194,7 +1194,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="76">
@@ -1205,7 +1205,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="78">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="79">
@@ -1238,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="80">
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>7586</v>
+        <v>27.04064799764637</v>
       </c>
     </row>
     <row r="81">
@@ -1260,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="82">
@@ -1271,7 +1271,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="83">
@@ -1282,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="84">
@@ -1293,7 +1293,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="85">
@@ -1304,7 +1304,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="86">
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="87">
@@ -1326,7 +1326,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="88">
@@ -1337,7 +1337,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="89">
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="90">
@@ -1359,7 +1359,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="91">
@@ -1370,7 +1370,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="92">
@@ -1381,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="94">
@@ -1403,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="95">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="96">
@@ -1425,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1436,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>7586</v>
+        <v>27.11494419905922</v>
       </c>
     </row>
     <row r="98">
@@ -1447,7 +1447,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="99">
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="100">
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="101">
@@ -1480,7 +1480,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="102">
@@ -1491,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="103">
@@ -1502,7 +1502,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="104">
@@ -1513,7 +1513,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="105">
@@ -1524,7 +1524,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="106">
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="107">
@@ -1546,7 +1546,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="108">
@@ -1557,7 +1557,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="109">
@@ -1568,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="110">
@@ -1579,7 +1579,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="111">
@@ -1590,7 +1590,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="112">
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="113">
@@ -1612,7 +1612,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="114">
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="115">
@@ -1634,7 +1634,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="116">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="117">
@@ -1656,7 +1656,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="118">
@@ -1667,7 +1667,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="119">
@@ -1678,7 +1678,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="120">
@@ -1689,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="121">
@@ -1700,7 +1700,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="n">
-        <v>7586</v>
+        <v>27.12385325434066</v>
       </c>
     </row>
     <row r="122">
@@ -1711,7 +1711,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="123">
@@ -1722,7 +1722,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="124">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="125">
@@ -1744,7 +1744,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="126">
@@ -1755,7 +1755,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="127">
@@ -1766,7 +1766,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="128">
@@ -1777,7 +1777,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="129">
@@ -1788,7 +1788,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="130">
@@ -1799,7 +1799,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="131">
@@ -1810,7 +1810,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="132">
@@ -1821,7 +1821,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="133">
@@ -1832,7 +1832,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="134">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="135">
@@ -1854,7 +1854,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="136">
@@ -1865,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="137">
@@ -1876,7 +1876,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="138">
@@ -1887,7 +1887,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="139">
@@ -1898,7 +1898,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="140">
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="141">
@@ -1920,7 +1920,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="142">
@@ -1931,7 +1931,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>7586</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="143">
@@ -1942,7 +1942,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="144">
@@ -1953,7 +1953,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="145">
@@ -1964,7 +1964,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="146">
@@ -1975,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="147">
@@ -1986,7 +1986,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="148">
@@ -1997,7 +1997,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="149">
@@ -2008,7 +2008,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="150">
@@ -2019,7 +2019,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="151">
@@ -2030,7 +2030,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="152">
@@ -2041,7 +2041,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="153">
@@ -2052,7 +2052,7 @@
         <v>151</v>
       </c>
       <c r="C153" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="154">
@@ -2063,7 +2063,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="155">
@@ -2074,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="C155" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="156">
@@ -2085,7 +2085,7 @@
         <v>154</v>
       </c>
       <c r="C156" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="157">
@@ -2096,7 +2096,7 @@
         <v>155</v>
       </c>
       <c r="C157" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="158">
@@ -2107,7 +2107,7 @@
         <v>156</v>
       </c>
       <c r="C158" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="159">
@@ -2118,7 +2118,7 @@
         <v>157</v>
       </c>
       <c r="C159" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="160">
@@ -2129,7 +2129,7 @@
         <v>158</v>
       </c>
       <c r="C160" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="161">
@@ -2140,7 +2140,7 @@
         <v>159</v>
       </c>
       <c r="C161" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="162">
@@ -2151,7 +2151,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="163">
@@ -2162,7 +2162,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="164">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="165">
@@ -2184,7 +2184,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="166">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="167">
@@ -2206,7 +2206,7 @@
         <v>165</v>
       </c>
       <c r="C167" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="168">
@@ -2217,7 +2217,7 @@
         <v>166</v>
       </c>
       <c r="C168" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="169">
@@ -2228,7 +2228,7 @@
         <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="170">
@@ -2239,7 +2239,7 @@
         <v>168</v>
       </c>
       <c r="C170" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="171">
@@ -2250,7 +2250,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="172">
@@ -2261,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="173">
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="174">
@@ -2283,7 +2283,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="175">
@@ -2294,7 +2294,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="176">
@@ -2305,7 +2305,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="177">
@@ -2316,7 +2316,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="178">
@@ -2327,7 +2327,7 @@
         <v>176</v>
       </c>
       <c r="C178" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="179">
@@ -2338,7 +2338,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="180">
@@ -2349,7 +2349,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="181">
@@ -2360,7 +2360,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="182">
@@ -2371,7 +2371,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="183">
@@ -2382,7 +2382,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="184">
@@ -2393,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="185">
@@ -2404,7 +2404,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="186">
@@ -2415,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="187">
@@ -2426,7 +2426,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="188">
@@ -2437,7 +2437,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="189">
@@ -2448,7 +2448,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="190">
@@ -2459,7 +2459,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="191">
@@ -2470,7 +2470,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="192">
@@ -2481,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="193">
@@ -2492,7 +2492,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="194">
@@ -2503,7 +2503,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="195">
@@ -2514,7 +2514,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="n">
-        <v>7569</v>
+        <v>27.1613608697824</v>
       </c>
     </row>
     <row r="196">
@@ -2525,7 +2525,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="197">
@@ -2536,7 +2536,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="198">
@@ -2547,7 +2547,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="199">
@@ -2558,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="200">
@@ -2569,7 +2569,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="201">
@@ -2580,7 +2580,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="202">
@@ -2591,7 +2591,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="203">
@@ -2602,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="204">
@@ -2613,7 +2613,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="205">
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="206">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="207">
@@ -2646,7 +2646,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="208">
@@ -2657,7 +2657,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="209">
@@ -2668,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="210">
@@ -2679,7 +2679,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="211">
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="212">
@@ -2701,7 +2701,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="213">
@@ -2712,7 +2712,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="214">
@@ -2723,7 +2723,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="215">
@@ -2734,7 +2734,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="216">
@@ -2745,7 +2745,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="217">
@@ -2756,7 +2756,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="218">
@@ -2767,7 +2767,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="219">
@@ -2778,7 +2778,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="220">
@@ -2789,7 +2789,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="221">
@@ -2800,7 +2800,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="222">
@@ -2811,7 +2811,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="223">
@@ -2822,7 +2822,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="224">
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="225">
@@ -2844,7 +2844,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="226">
@@ -2855,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="227">
@@ -2866,7 +2866,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="228">
@@ -2877,7 +2877,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="229">
@@ -2888,7 +2888,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="230">
@@ -2899,7 +2899,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="231">
@@ -2910,7 +2910,7 @@
         <v>229</v>
       </c>
       <c r="C231" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="232">
@@ -2921,7 +2921,7 @@
         <v>230</v>
       </c>
       <c r="C232" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="233">
@@ -2932,7 +2932,7 @@
         <v>231</v>
       </c>
       <c r="C233" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="234">
@@ -2943,7 +2943,7 @@
         <v>232</v>
       </c>
       <c r="C234" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="235">
@@ -2954,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C235" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="236">
@@ -2965,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="C236" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="237">
@@ -2976,7 +2976,7 @@
         <v>235</v>
       </c>
       <c r="C237" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="238">
@@ -2987,7 +2987,7 @@
         <v>236</v>
       </c>
       <c r="C238" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="239">
@@ -2998,7 +2998,7 @@
         <v>237</v>
       </c>
       <c r="C239" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="240">
@@ -3009,7 +3009,7 @@
         <v>238</v>
       </c>
       <c r="C240" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="241">
@@ -3020,7 +3020,7 @@
         <v>239</v>
       </c>
       <c r="C241" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="C242" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="243">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="C243" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="244">
@@ -3053,7 +3053,7 @@
         <v>242</v>
       </c>
       <c r="C244" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="245">
@@ -3064,7 +3064,7 @@
         <v>243</v>
       </c>
       <c r="C245" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="246">
@@ -3075,7 +3075,7 @@
         <v>244</v>
       </c>
       <c r="C246" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="247">
@@ -3086,7 +3086,7 @@
         <v>245</v>
       </c>
       <c r="C247" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="248">
@@ -3097,7 +3097,7 @@
         <v>246</v>
       </c>
       <c r="C248" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="249">
@@ -3108,7 +3108,7 @@
         <v>247</v>
       </c>
       <c r="C249" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="250">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="C250" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="251">
@@ -3130,7 +3130,7 @@
         <v>249</v>
       </c>
       <c r="C251" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
       </c>
     </row>
     <row r="252">
@@ -3141,7 +3141,2757 @@
         <v>250</v>
       </c>
       <c r="C252" t="n">
-        <v>7569</v>
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>5</v>
+      </c>
+      <c r="B253" t="n">
+        <v>251</v>
+      </c>
+      <c r="C253" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>5</v>
+      </c>
+      <c r="B254" t="n">
+        <v>252</v>
+      </c>
+      <c r="C254" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>5</v>
+      </c>
+      <c r="B255" t="n">
+        <v>253</v>
+      </c>
+      <c r="C255" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B256" t="n">
+        <v>254</v>
+      </c>
+      <c r="C256" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="n">
+        <v>255</v>
+      </c>
+      <c r="C257" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>5</v>
+      </c>
+      <c r="B258" t="n">
+        <v>256</v>
+      </c>
+      <c r="C258" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>5</v>
+      </c>
+      <c r="B259" t="n">
+        <v>257</v>
+      </c>
+      <c r="C259" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>5</v>
+      </c>
+      <c r="B260" t="n">
+        <v>258</v>
+      </c>
+      <c r="C260" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>5</v>
+      </c>
+      <c r="B261" t="n">
+        <v>259</v>
+      </c>
+      <c r="C261" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>5</v>
+      </c>
+      <c r="B262" t="n">
+        <v>260</v>
+      </c>
+      <c r="C262" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>5</v>
+      </c>
+      <c r="B263" t="n">
+        <v>261</v>
+      </c>
+      <c r="C263" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>5</v>
+      </c>
+      <c r="B264" t="n">
+        <v>262</v>
+      </c>
+      <c r="C264" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>5</v>
+      </c>
+      <c r="B265" t="n">
+        <v>263</v>
+      </c>
+      <c r="C265" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>5</v>
+      </c>
+      <c r="B266" t="n">
+        <v>264</v>
+      </c>
+      <c r="C266" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>5</v>
+      </c>
+      <c r="B267" t="n">
+        <v>265</v>
+      </c>
+      <c r="C267" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>5</v>
+      </c>
+      <c r="B268" t="n">
+        <v>266</v>
+      </c>
+      <c r="C268" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>5</v>
+      </c>
+      <c r="B269" t="n">
+        <v>267</v>
+      </c>
+      <c r="C269" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>5</v>
+      </c>
+      <c r="B270" t="n">
+        <v>268</v>
+      </c>
+      <c r="C270" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>5</v>
+      </c>
+      <c r="B271" t="n">
+        <v>269</v>
+      </c>
+      <c r="C271" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>5</v>
+      </c>
+      <c r="B272" t="n">
+        <v>270</v>
+      </c>
+      <c r="C272" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>5</v>
+      </c>
+      <c r="B273" t="n">
+        <v>271</v>
+      </c>
+      <c r="C273" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>5</v>
+      </c>
+      <c r="B274" t="n">
+        <v>272</v>
+      </c>
+      <c r="C274" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>5</v>
+      </c>
+      <c r="B275" t="n">
+        <v>273</v>
+      </c>
+      <c r="C275" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>5</v>
+      </c>
+      <c r="B276" t="n">
+        <v>274</v>
+      </c>
+      <c r="C276" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>5</v>
+      </c>
+      <c r="B277" t="n">
+        <v>275</v>
+      </c>
+      <c r="C277" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>5</v>
+      </c>
+      <c r="B278" t="n">
+        <v>276</v>
+      </c>
+      <c r="C278" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>5</v>
+      </c>
+      <c r="B279" t="n">
+        <v>277</v>
+      </c>
+      <c r="C279" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>5</v>
+      </c>
+      <c r="B280" t="n">
+        <v>278</v>
+      </c>
+      <c r="C280" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>5</v>
+      </c>
+      <c r="B281" t="n">
+        <v>279</v>
+      </c>
+      <c r="C281" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>5</v>
+      </c>
+      <c r="B282" t="n">
+        <v>280</v>
+      </c>
+      <c r="C282" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>5</v>
+      </c>
+      <c r="B283" t="n">
+        <v>281</v>
+      </c>
+      <c r="C283" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>5</v>
+      </c>
+      <c r="B284" t="n">
+        <v>282</v>
+      </c>
+      <c r="C284" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>5</v>
+      </c>
+      <c r="B285" t="n">
+        <v>283</v>
+      </c>
+      <c r="C285" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>5</v>
+      </c>
+      <c r="B286" t="n">
+        <v>284</v>
+      </c>
+      <c r="C286" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>5</v>
+      </c>
+      <c r="B287" t="n">
+        <v>285</v>
+      </c>
+      <c r="C287" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>5</v>
+      </c>
+      <c r="B288" t="n">
+        <v>286</v>
+      </c>
+      <c r="C288" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>5</v>
+      </c>
+      <c r="B289" t="n">
+        <v>287</v>
+      </c>
+      <c r="C289" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>5</v>
+      </c>
+      <c r="B290" t="n">
+        <v>288</v>
+      </c>
+      <c r="C290" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>5</v>
+      </c>
+      <c r="B291" t="n">
+        <v>289</v>
+      </c>
+      <c r="C291" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>5</v>
+      </c>
+      <c r="B292" t="n">
+        <v>290</v>
+      </c>
+      <c r="C292" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>5</v>
+      </c>
+      <c r="B293" t="n">
+        <v>291</v>
+      </c>
+      <c r="C293" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>5</v>
+      </c>
+      <c r="B294" t="n">
+        <v>292</v>
+      </c>
+      <c r="C294" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>5</v>
+      </c>
+      <c r="B295" t="n">
+        <v>293</v>
+      </c>
+      <c r="C295" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>5</v>
+      </c>
+      <c r="B296" t="n">
+        <v>294</v>
+      </c>
+      <c r="C296" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>5</v>
+      </c>
+      <c r="B297" t="n">
+        <v>295</v>
+      </c>
+      <c r="C297" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>5</v>
+      </c>
+      <c r="B298" t="n">
+        <v>296</v>
+      </c>
+      <c r="C298" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>5</v>
+      </c>
+      <c r="B299" t="n">
+        <v>297</v>
+      </c>
+      <c r="C299" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>5</v>
+      </c>
+      <c r="B300" t="n">
+        <v>298</v>
+      </c>
+      <c r="C300" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>5</v>
+      </c>
+      <c r="B301" t="n">
+        <v>299</v>
+      </c>
+      <c r="C301" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>5</v>
+      </c>
+      <c r="B302" t="n">
+        <v>300</v>
+      </c>
+      <c r="C302" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>5</v>
+      </c>
+      <c r="B303" t="n">
+        <v>301</v>
+      </c>
+      <c r="C303" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>5</v>
+      </c>
+      <c r="B304" t="n">
+        <v>302</v>
+      </c>
+      <c r="C304" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>5</v>
+      </c>
+      <c r="B305" t="n">
+        <v>303</v>
+      </c>
+      <c r="C305" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" t="n">
+        <v>304</v>
+      </c>
+      <c r="C306" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>5</v>
+      </c>
+      <c r="B307" t="n">
+        <v>305</v>
+      </c>
+      <c r="C307" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>5</v>
+      </c>
+      <c r="B308" t="n">
+        <v>306</v>
+      </c>
+      <c r="C308" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>5</v>
+      </c>
+      <c r="B309" t="n">
+        <v>307</v>
+      </c>
+      <c r="C309" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>5</v>
+      </c>
+      <c r="B310" t="n">
+        <v>308</v>
+      </c>
+      <c r="C310" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>5</v>
+      </c>
+      <c r="B311" t="n">
+        <v>309</v>
+      </c>
+      <c r="C311" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>5</v>
+      </c>
+      <c r="B312" t="n">
+        <v>310</v>
+      </c>
+      <c r="C312" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>5</v>
+      </c>
+      <c r="B313" t="n">
+        <v>311</v>
+      </c>
+      <c r="C313" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>5</v>
+      </c>
+      <c r="B314" t="n">
+        <v>312</v>
+      </c>
+      <c r="C314" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>5</v>
+      </c>
+      <c r="B315" t="n">
+        <v>313</v>
+      </c>
+      <c r="C315" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>5</v>
+      </c>
+      <c r="B316" t="n">
+        <v>314</v>
+      </c>
+      <c r="C316" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>5</v>
+      </c>
+      <c r="B317" t="n">
+        <v>315</v>
+      </c>
+      <c r="C317" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>5</v>
+      </c>
+      <c r="B318" t="n">
+        <v>316</v>
+      </c>
+      <c r="C318" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>5</v>
+      </c>
+      <c r="B319" t="n">
+        <v>317</v>
+      </c>
+      <c r="C319" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>5</v>
+      </c>
+      <c r="B320" t="n">
+        <v>318</v>
+      </c>
+      <c r="C320" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>5</v>
+      </c>
+      <c r="B321" t="n">
+        <v>319</v>
+      </c>
+      <c r="C321" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>5</v>
+      </c>
+      <c r="B322" t="n">
+        <v>320</v>
+      </c>
+      <c r="C322" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>5</v>
+      </c>
+      <c r="B323" t="n">
+        <v>321</v>
+      </c>
+      <c r="C323" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>5</v>
+      </c>
+      <c r="B324" t="n">
+        <v>322</v>
+      </c>
+      <c r="C324" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>5</v>
+      </c>
+      <c r="B325" t="n">
+        <v>323</v>
+      </c>
+      <c r="C325" t="n">
+        <v>27.20680887973137</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>5</v>
+      </c>
+      <c r="B326" t="n">
+        <v>324</v>
+      </c>
+      <c r="C326" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>5</v>
+      </c>
+      <c r="B327" t="n">
+        <v>325</v>
+      </c>
+      <c r="C327" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>5</v>
+      </c>
+      <c r="B328" t="n">
+        <v>326</v>
+      </c>
+      <c r="C328" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>5</v>
+      </c>
+      <c r="B329" t="n">
+        <v>327</v>
+      </c>
+      <c r="C329" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5</v>
+      </c>
+      <c r="B330" t="n">
+        <v>328</v>
+      </c>
+      <c r="C330" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>5</v>
+      </c>
+      <c r="B331" t="n">
+        <v>329</v>
+      </c>
+      <c r="C331" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>5</v>
+      </c>
+      <c r="B332" t="n">
+        <v>330</v>
+      </c>
+      <c r="C332" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>5</v>
+      </c>
+      <c r="B333" t="n">
+        <v>331</v>
+      </c>
+      <c r="C333" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>5</v>
+      </c>
+      <c r="B334" t="n">
+        <v>332</v>
+      </c>
+      <c r="C334" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>5</v>
+      </c>
+      <c r="B335" t="n">
+        <v>333</v>
+      </c>
+      <c r="C335" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>5</v>
+      </c>
+      <c r="B336" t="n">
+        <v>334</v>
+      </c>
+      <c r="C336" t="n">
+        <v>27.20690555191212</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>5</v>
+      </c>
+      <c r="B337" t="n">
+        <v>335</v>
+      </c>
+      <c r="C337" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>5</v>
+      </c>
+      <c r="B338" t="n">
+        <v>336</v>
+      </c>
+      <c r="C338" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>5</v>
+      </c>
+      <c r="B339" t="n">
+        <v>337</v>
+      </c>
+      <c r="C339" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>5</v>
+      </c>
+      <c r="B340" t="n">
+        <v>338</v>
+      </c>
+      <c r="C340" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>5</v>
+      </c>
+      <c r="B341" t="n">
+        <v>339</v>
+      </c>
+      <c r="C341" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>5</v>
+      </c>
+      <c r="B342" t="n">
+        <v>340</v>
+      </c>
+      <c r="C342" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>5</v>
+      </c>
+      <c r="B343" t="n">
+        <v>341</v>
+      </c>
+      <c r="C343" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>5</v>
+      </c>
+      <c r="B344" t="n">
+        <v>342</v>
+      </c>
+      <c r="C344" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>5</v>
+      </c>
+      <c r="B345" t="n">
+        <v>343</v>
+      </c>
+      <c r="C345" t="n">
+        <v>27.23337450410107</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>5</v>
+      </c>
+      <c r="B346" t="n">
+        <v>344</v>
+      </c>
+      <c r="C346" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>5</v>
+      </c>
+      <c r="B347" t="n">
+        <v>345</v>
+      </c>
+      <c r="C347" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>5</v>
+      </c>
+      <c r="B348" t="n">
+        <v>346</v>
+      </c>
+      <c r="C348" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>5</v>
+      </c>
+      <c r="B349" t="n">
+        <v>347</v>
+      </c>
+      <c r="C349" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>5</v>
+      </c>
+      <c r="B350" t="n">
+        <v>348</v>
+      </c>
+      <c r="C350" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>5</v>
+      </c>
+      <c r="B351" t="n">
+        <v>349</v>
+      </c>
+      <c r="C351" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>5</v>
+      </c>
+      <c r="B352" t="n">
+        <v>350</v>
+      </c>
+      <c r="C352" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>5</v>
+      </c>
+      <c r="B353" t="n">
+        <v>351</v>
+      </c>
+      <c r="C353" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>5</v>
+      </c>
+      <c r="B354" t="n">
+        <v>352</v>
+      </c>
+      <c r="C354" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>5</v>
+      </c>
+      <c r="B355" t="n">
+        <v>353</v>
+      </c>
+      <c r="C355" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>5</v>
+      </c>
+      <c r="B356" t="n">
+        <v>354</v>
+      </c>
+      <c r="C356" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>5</v>
+      </c>
+      <c r="B357" t="n">
+        <v>355</v>
+      </c>
+      <c r="C357" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>5</v>
+      </c>
+      <c r="B358" t="n">
+        <v>356</v>
+      </c>
+      <c r="C358" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>5</v>
+      </c>
+      <c r="B359" t="n">
+        <v>357</v>
+      </c>
+      <c r="C359" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>5</v>
+      </c>
+      <c r="B360" t="n">
+        <v>358</v>
+      </c>
+      <c r="C360" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>5</v>
+      </c>
+      <c r="B361" t="n">
+        <v>359</v>
+      </c>
+      <c r="C361" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>5</v>
+      </c>
+      <c r="B362" t="n">
+        <v>360</v>
+      </c>
+      <c r="C362" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>5</v>
+      </c>
+      <c r="B363" t="n">
+        <v>361</v>
+      </c>
+      <c r="C363" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>5</v>
+      </c>
+      <c r="B364" t="n">
+        <v>362</v>
+      </c>
+      <c r="C364" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>5</v>
+      </c>
+      <c r="B365" t="n">
+        <v>363</v>
+      </c>
+      <c r="C365" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>5</v>
+      </c>
+      <c r="B366" t="n">
+        <v>364</v>
+      </c>
+      <c r="C366" t="n">
+        <v>27.2335671436205</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>5</v>
+      </c>
+      <c r="B367" t="n">
+        <v>365</v>
+      </c>
+      <c r="C367" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>5</v>
+      </c>
+      <c r="B368" t="n">
+        <v>366</v>
+      </c>
+      <c r="C368" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>5</v>
+      </c>
+      <c r="B369" t="n">
+        <v>367</v>
+      </c>
+      <c r="C369" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>5</v>
+      </c>
+      <c r="B370" t="n">
+        <v>368</v>
+      </c>
+      <c r="C370" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>5</v>
+      </c>
+      <c r="B371" t="n">
+        <v>369</v>
+      </c>
+      <c r="C371" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>5</v>
+      </c>
+      <c r="B372" t="n">
+        <v>370</v>
+      </c>
+      <c r="C372" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>5</v>
+      </c>
+      <c r="B373" t="n">
+        <v>371</v>
+      </c>
+      <c r="C373" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>5</v>
+      </c>
+      <c r="B374" t="n">
+        <v>372</v>
+      </c>
+      <c r="C374" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>5</v>
+      </c>
+      <c r="B375" t="n">
+        <v>373</v>
+      </c>
+      <c r="C375" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>5</v>
+      </c>
+      <c r="B376" t="n">
+        <v>374</v>
+      </c>
+      <c r="C376" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>5</v>
+      </c>
+      <c r="B377" t="n">
+        <v>375</v>
+      </c>
+      <c r="C377" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>5</v>
+      </c>
+      <c r="B378" t="n">
+        <v>376</v>
+      </c>
+      <c r="C378" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>5</v>
+      </c>
+      <c r="B379" t="n">
+        <v>377</v>
+      </c>
+      <c r="C379" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>5</v>
+      </c>
+      <c r="B380" t="n">
+        <v>378</v>
+      </c>
+      <c r="C380" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>5</v>
+      </c>
+      <c r="B381" t="n">
+        <v>379</v>
+      </c>
+      <c r="C381" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>5</v>
+      </c>
+      <c r="B382" t="n">
+        <v>380</v>
+      </c>
+      <c r="C382" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>5</v>
+      </c>
+      <c r="B383" t="n">
+        <v>381</v>
+      </c>
+      <c r="C383" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>5</v>
+      </c>
+      <c r="B384" t="n">
+        <v>382</v>
+      </c>
+      <c r="C384" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>5</v>
+      </c>
+      <c r="B385" t="n">
+        <v>383</v>
+      </c>
+      <c r="C385" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>5</v>
+      </c>
+      <c r="B386" t="n">
+        <v>384</v>
+      </c>
+      <c r="C386" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>5</v>
+      </c>
+      <c r="B387" t="n">
+        <v>385</v>
+      </c>
+      <c r="C387" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>5</v>
+      </c>
+      <c r="B388" t="n">
+        <v>386</v>
+      </c>
+      <c r="C388" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>5</v>
+      </c>
+      <c r="B389" t="n">
+        <v>387</v>
+      </c>
+      <c r="C389" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>5</v>
+      </c>
+      <c r="B390" t="n">
+        <v>388</v>
+      </c>
+      <c r="C390" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>5</v>
+      </c>
+      <c r="B391" t="n">
+        <v>389</v>
+      </c>
+      <c r="C391" t="n">
+        <v>27.34661709972289</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>5</v>
+      </c>
+      <c r="B392" t="n">
+        <v>390</v>
+      </c>
+      <c r="C392" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>5</v>
+      </c>
+      <c r="B393" t="n">
+        <v>391</v>
+      </c>
+      <c r="C393" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>5</v>
+      </c>
+      <c r="B394" t="n">
+        <v>392</v>
+      </c>
+      <c r="C394" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>5</v>
+      </c>
+      <c r="B395" t="n">
+        <v>393</v>
+      </c>
+      <c r="C395" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>5</v>
+      </c>
+      <c r="B396" t="n">
+        <v>394</v>
+      </c>
+      <c r="C396" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>5</v>
+      </c>
+      <c r="B397" t="n">
+        <v>395</v>
+      </c>
+      <c r="C397" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>5</v>
+      </c>
+      <c r="B398" t="n">
+        <v>396</v>
+      </c>
+      <c r="C398" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>5</v>
+      </c>
+      <c r="B399" t="n">
+        <v>397</v>
+      </c>
+      <c r="C399" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>5</v>
+      </c>
+      <c r="B400" t="n">
+        <v>398</v>
+      </c>
+      <c r="C400" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>5</v>
+      </c>
+      <c r="B401" t="n">
+        <v>399</v>
+      </c>
+      <c r="C401" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>5</v>
+      </c>
+      <c r="B402" t="n">
+        <v>400</v>
+      </c>
+      <c r="C402" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>5</v>
+      </c>
+      <c r="B403" t="n">
+        <v>401</v>
+      </c>
+      <c r="C403" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>5</v>
+      </c>
+      <c r="B404" t="n">
+        <v>402</v>
+      </c>
+      <c r="C404" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>5</v>
+      </c>
+      <c r="B405" t="n">
+        <v>403</v>
+      </c>
+      <c r="C405" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>5</v>
+      </c>
+      <c r="B406" t="n">
+        <v>404</v>
+      </c>
+      <c r="C406" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>5</v>
+      </c>
+      <c r="B407" t="n">
+        <v>405</v>
+      </c>
+      <c r="C407" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>5</v>
+      </c>
+      <c r="B408" t="n">
+        <v>406</v>
+      </c>
+      <c r="C408" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>5</v>
+      </c>
+      <c r="B409" t="n">
+        <v>407</v>
+      </c>
+      <c r="C409" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>5</v>
+      </c>
+      <c r="B410" t="n">
+        <v>408</v>
+      </c>
+      <c r="C410" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>5</v>
+      </c>
+      <c r="B411" t="n">
+        <v>409</v>
+      </c>
+      <c r="C411" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>5</v>
+      </c>
+      <c r="B412" t="n">
+        <v>410</v>
+      </c>
+      <c r="C412" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>5</v>
+      </c>
+      <c r="B413" t="n">
+        <v>411</v>
+      </c>
+      <c r="C413" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>5</v>
+      </c>
+      <c r="B414" t="n">
+        <v>412</v>
+      </c>
+      <c r="C414" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>5</v>
+      </c>
+      <c r="B415" t="n">
+        <v>413</v>
+      </c>
+      <c r="C415" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>5</v>
+      </c>
+      <c r="B416" t="n">
+        <v>414</v>
+      </c>
+      <c r="C416" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>5</v>
+      </c>
+      <c r="B417" t="n">
+        <v>415</v>
+      </c>
+      <c r="C417" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>5</v>
+      </c>
+      <c r="B418" t="n">
+        <v>416</v>
+      </c>
+      <c r="C418" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>5</v>
+      </c>
+      <c r="B419" t="n">
+        <v>417</v>
+      </c>
+      <c r="C419" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>5</v>
+      </c>
+      <c r="B420" t="n">
+        <v>418</v>
+      </c>
+      <c r="C420" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>5</v>
+      </c>
+      <c r="B421" t="n">
+        <v>419</v>
+      </c>
+      <c r="C421" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>5</v>
+      </c>
+      <c r="B422" t="n">
+        <v>420</v>
+      </c>
+      <c r="C422" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>5</v>
+      </c>
+      <c r="B423" t="n">
+        <v>421</v>
+      </c>
+      <c r="C423" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>5</v>
+      </c>
+      <c r="B424" t="n">
+        <v>422</v>
+      </c>
+      <c r="C424" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>5</v>
+      </c>
+      <c r="B425" t="n">
+        <v>423</v>
+      </c>
+      <c r="C425" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>5</v>
+      </c>
+      <c r="B426" t="n">
+        <v>424</v>
+      </c>
+      <c r="C426" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>5</v>
+      </c>
+      <c r="B427" t="n">
+        <v>425</v>
+      </c>
+      <c r="C427" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>5</v>
+      </c>
+      <c r="B428" t="n">
+        <v>426</v>
+      </c>
+      <c r="C428" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>5</v>
+      </c>
+      <c r="B429" t="n">
+        <v>427</v>
+      </c>
+      <c r="C429" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>5</v>
+      </c>
+      <c r="B430" t="n">
+        <v>428</v>
+      </c>
+      <c r="C430" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>5</v>
+      </c>
+      <c r="B431" t="n">
+        <v>429</v>
+      </c>
+      <c r="C431" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>5</v>
+      </c>
+      <c r="B432" t="n">
+        <v>430</v>
+      </c>
+      <c r="C432" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>5</v>
+      </c>
+      <c r="B433" t="n">
+        <v>431</v>
+      </c>
+      <c r="C433" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>5</v>
+      </c>
+      <c r="B434" t="n">
+        <v>432</v>
+      </c>
+      <c r="C434" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>5</v>
+      </c>
+      <c r="B435" t="n">
+        <v>433</v>
+      </c>
+      <c r="C435" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>5</v>
+      </c>
+      <c r="B436" t="n">
+        <v>434</v>
+      </c>
+      <c r="C436" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>5</v>
+      </c>
+      <c r="B437" t="n">
+        <v>435</v>
+      </c>
+      <c r="C437" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>5</v>
+      </c>
+      <c r="B438" t="n">
+        <v>436</v>
+      </c>
+      <c r="C438" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>5</v>
+      </c>
+      <c r="B439" t="n">
+        <v>437</v>
+      </c>
+      <c r="C439" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>5</v>
+      </c>
+      <c r="B440" t="n">
+        <v>438</v>
+      </c>
+      <c r="C440" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>5</v>
+      </c>
+      <c r="B441" t="n">
+        <v>439</v>
+      </c>
+      <c r="C441" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>5</v>
+      </c>
+      <c r="B442" t="n">
+        <v>440</v>
+      </c>
+      <c r="C442" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>5</v>
+      </c>
+      <c r="B443" t="n">
+        <v>441</v>
+      </c>
+      <c r="C443" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>5</v>
+      </c>
+      <c r="B444" t="n">
+        <v>442</v>
+      </c>
+      <c r="C444" t="n">
+        <v>27.39394195376536</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>5</v>
+      </c>
+      <c r="B445" t="n">
+        <v>443</v>
+      </c>
+      <c r="C445" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>5</v>
+      </c>
+      <c r="B446" t="n">
+        <v>444</v>
+      </c>
+      <c r="C446" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>5</v>
+      </c>
+      <c r="B447" t="n">
+        <v>445</v>
+      </c>
+      <c r="C447" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>5</v>
+      </c>
+      <c r="B448" t="n">
+        <v>446</v>
+      </c>
+      <c r="C448" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>5</v>
+      </c>
+      <c r="B449" t="n">
+        <v>447</v>
+      </c>
+      <c r="C449" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>5</v>
+      </c>
+      <c r="B450" t="n">
+        <v>448</v>
+      </c>
+      <c r="C450" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>5</v>
+      </c>
+      <c r="B451" t="n">
+        <v>449</v>
+      </c>
+      <c r="C451" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>5</v>
+      </c>
+      <c r="B452" t="n">
+        <v>450</v>
+      </c>
+      <c r="C452" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>5</v>
+      </c>
+      <c r="B453" t="n">
+        <v>451</v>
+      </c>
+      <c r="C453" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>5</v>
+      </c>
+      <c r="B454" t="n">
+        <v>452</v>
+      </c>
+      <c r="C454" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>5</v>
+      </c>
+      <c r="B455" t="n">
+        <v>453</v>
+      </c>
+      <c r="C455" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>5</v>
+      </c>
+      <c r="B456" t="n">
+        <v>454</v>
+      </c>
+      <c r="C456" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>5</v>
+      </c>
+      <c r="B457" t="n">
+        <v>455</v>
+      </c>
+      <c r="C457" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>5</v>
+      </c>
+      <c r="B458" t="n">
+        <v>456</v>
+      </c>
+      <c r="C458" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>5</v>
+      </c>
+      <c r="B459" t="n">
+        <v>457</v>
+      </c>
+      <c r="C459" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>5</v>
+      </c>
+      <c r="B460" t="n">
+        <v>458</v>
+      </c>
+      <c r="C460" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>5</v>
+      </c>
+      <c r="B461" t="n">
+        <v>459</v>
+      </c>
+      <c r="C461" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>5</v>
+      </c>
+      <c r="B462" t="n">
+        <v>460</v>
+      </c>
+      <c r="C462" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>5</v>
+      </c>
+      <c r="B463" t="n">
+        <v>461</v>
+      </c>
+      <c r="C463" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>5</v>
+      </c>
+      <c r="B464" t="n">
+        <v>462</v>
+      </c>
+      <c r="C464" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>5</v>
+      </c>
+      <c r="B465" t="n">
+        <v>463</v>
+      </c>
+      <c r="C465" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>5</v>
+      </c>
+      <c r="B466" t="n">
+        <v>464</v>
+      </c>
+      <c r="C466" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>5</v>
+      </c>
+      <c r="B467" t="n">
+        <v>465</v>
+      </c>
+      <c r="C467" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>5</v>
+      </c>
+      <c r="B468" t="n">
+        <v>466</v>
+      </c>
+      <c r="C468" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>5</v>
+      </c>
+      <c r="B469" t="n">
+        <v>467</v>
+      </c>
+      <c r="C469" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>5</v>
+      </c>
+      <c r="B470" t="n">
+        <v>468</v>
+      </c>
+      <c r="C470" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>5</v>
+      </c>
+      <c r="B471" t="n">
+        <v>469</v>
+      </c>
+      <c r="C471" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>5</v>
+      </c>
+      <c r="B472" t="n">
+        <v>470</v>
+      </c>
+      <c r="C472" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>5</v>
+      </c>
+      <c r="B473" t="n">
+        <v>471</v>
+      </c>
+      <c r="C473" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>5</v>
+      </c>
+      <c r="B474" t="n">
+        <v>472</v>
+      </c>
+      <c r="C474" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>5</v>
+      </c>
+      <c r="B475" t="n">
+        <v>473</v>
+      </c>
+      <c r="C475" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>5</v>
+      </c>
+      <c r="B476" t="n">
+        <v>474</v>
+      </c>
+      <c r="C476" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>5</v>
+      </c>
+      <c r="B477" t="n">
+        <v>475</v>
+      </c>
+      <c r="C477" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>5</v>
+      </c>
+      <c r="B478" t="n">
+        <v>476</v>
+      </c>
+      <c r="C478" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>5</v>
+      </c>
+      <c r="B479" t="n">
+        <v>477</v>
+      </c>
+      <c r="C479" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>5</v>
+      </c>
+      <c r="B480" t="n">
+        <v>478</v>
+      </c>
+      <c r="C480" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>5</v>
+      </c>
+      <c r="B481" t="n">
+        <v>479</v>
+      </c>
+      <c r="C481" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>5</v>
+      </c>
+      <c r="B482" t="n">
+        <v>480</v>
+      </c>
+      <c r="C482" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>5</v>
+      </c>
+      <c r="B483" t="n">
+        <v>481</v>
+      </c>
+      <c r="C483" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>5</v>
+      </c>
+      <c r="B484" t="n">
+        <v>482</v>
+      </c>
+      <c r="C484" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>5</v>
+      </c>
+      <c r="B485" t="n">
+        <v>483</v>
+      </c>
+      <c r="C485" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>5</v>
+      </c>
+      <c r="B486" t="n">
+        <v>484</v>
+      </c>
+      <c r="C486" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>5</v>
+      </c>
+      <c r="B487" t="n">
+        <v>485</v>
+      </c>
+      <c r="C487" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>5</v>
+      </c>
+      <c r="B488" t="n">
+        <v>486</v>
+      </c>
+      <c r="C488" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>5</v>
+      </c>
+      <c r="B489" t="n">
+        <v>487</v>
+      </c>
+      <c r="C489" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>5</v>
+      </c>
+      <c r="B490" t="n">
+        <v>488</v>
+      </c>
+      <c r="C490" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>5</v>
+      </c>
+      <c r="B491" t="n">
+        <v>489</v>
+      </c>
+      <c r="C491" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>5</v>
+      </c>
+      <c r="B492" t="n">
+        <v>490</v>
+      </c>
+      <c r="C492" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>5</v>
+      </c>
+      <c r="B493" t="n">
+        <v>491</v>
+      </c>
+      <c r="C493" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>5</v>
+      </c>
+      <c r="B494" t="n">
+        <v>492</v>
+      </c>
+      <c r="C494" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>5</v>
+      </c>
+      <c r="B495" t="n">
+        <v>493</v>
+      </c>
+      <c r="C495" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>5</v>
+      </c>
+      <c r="B496" t="n">
+        <v>494</v>
+      </c>
+      <c r="C496" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>5</v>
+      </c>
+      <c r="B497" t="n">
+        <v>495</v>
+      </c>
+      <c r="C497" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>5</v>
+      </c>
+      <c r="B498" t="n">
+        <v>496</v>
+      </c>
+      <c r="C498" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>5</v>
+      </c>
+      <c r="B499" t="n">
+        <v>497</v>
+      </c>
+      <c r="C499" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>5</v>
+      </c>
+      <c r="B500" t="n">
+        <v>498</v>
+      </c>
+      <c r="C500" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>5</v>
+      </c>
+      <c r="B501" t="n">
+        <v>499</v>
+      </c>
+      <c r="C501" t="n">
+        <v>27.41386473439864</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>5</v>
+      </c>
+      <c r="B502" t="n">
+        <v>500</v>
+      </c>
+      <c r="C502" t="n">
+        <v>27.41386473439864</v>
       </c>
     </row>
   </sheetData>
